--- a/biology/Zoologie/Eysarcoris/Eysarcoris.xlsx
+++ b/biology/Zoologie/Eysarcoris/Eysarcoris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eysarcoris est un genre d'insectes hétéroptères (punaises) de la tribu des Eysarcorini (sous-famille des Pentatominae, famille des Pentatomidae).
 </t>
@@ -511,16 +523,87 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Eysarcoris est créé en 1834 par Carl Wilhelm Hahn[1],[2].
-Fossiles
-Selon Paleobiology Database en 2023, le nombre de collections de fossiles référencées est de sept pour onze occurrences[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Eysarcoris est créé en 1834 par Carl Wilhelm Hahn,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Eysarcoris</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eysarcoris</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database en 2023, le nombre de collections de fossiles référencées est de sept pour onze occurrences :
 Quaternaire, une collection du Japon ;
 Miocène, une collection de Chine et une d'Allemagne ;
-Oligocène, deux collections de France et une d'Allemagne[2].
-Synonymes
-Selon BioLib en 2023, le nombre de synonymes est de six[3] :
+Oligocène, deux collections de France et une d'Allemagne.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Eysarcoris</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eysarcoris</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib en 2023, le nombre de synonymes est de six :
 Analocus Stål, 1872
 Bainbriggeanus Distant, 1918
 Gobisa Gorski, 1852
@@ -531,70 +614,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Eysarcoris</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Eysarcoris</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les punaises puantes de ce genre sont relativement petites (&lt; 6 mm de longueur) et de forme obovale. Il y a une couverture dense de piqûres sur une grande partie du corps. La tête et la surface ventrale du thorax sont couvertes de poils en forme de massue[4].
-Eysarcoris appartient à un groupe de punaises puantes (comprenant également Sepontia, Spermatodes et Stagonomus) qui ont un large scutellum et un processus auriculé/épineux antérieur à l'ouverture de la glande odorante, et qui n'ont pas de sillon médian dans le sterna thoracique[4].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Eysarcoris</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Eysarcoris</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Écologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Eysarcoris sont des herbivores qui vivent sur diverses plantes[4].
-Certains Eysarcoris sont des ravageurs de plantes : E. guttiger est un ravageur du soja et du sésame[5], tandis qu'E. trimaculatus et E. ventralis sont des ravageurs du riz[6].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -616,12 +635,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Recherche</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les génomes mitochondriaux de diverses espèces d’Eysarcoris ont été séquencés[7],[8],[9].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les punaises puantes de ce genre sont relativement petites (&lt; 6 mm de longueur) et de forme obovale. Il y a une couverture dense de piqûres sur une grande partie du corps. La tête et la surface ventrale du thorax sont couvertes de poils en forme de massue.
+Eysarcoris appartient à un groupe de punaises puantes (comprenant également Sepontia, Spermatodes et Stagonomus) qui ont un large scutellum et un processus auriculé/épineux antérieur à l'ouverture de la glande odorante, et qui n'ont pas de sillon médian dans le sterna thoracique.
 </t>
         </is>
       </c>
@@ -647,12 +669,81 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Eysarcoris sont des herbivores qui vivent sur diverses plantes.
+Certains Eysarcoris sont des ravageurs de plantes : E. guttiger est un ravageur du soja et du sésame, tandis qu'E. trimaculatus et E. ventralis sont des ravageurs du riz.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Eysarcoris</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eysarcoris</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Recherche</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les génomes mitochondriaux de diverses espèces d’Eysarcoris ont été séquencés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Eysarcoris</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eysarcoris</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (30 octobre 2023)[10] :
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (30 octobre 2023) :
 Eysarcoris aeneus (Walker, 1867)
 Eysarcoris aeneus (Scopoli, 1763)
 Eysarcoris annamita Breddin, 1909
@@ -683,8 +774,43 @@
 Eysarcoris trimaculatus (Distant, 1881)
 Eysarcoris uniformis Fuente, 1971
 Eysarcoris ventralis (Westwood, 1837)
-Espèces fossiles
-Selon Paleobiology Database                   (30 octobre 2023)[11] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Eysarcoris</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eysarcoris</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Espèces fossiles</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database                   (30 octobre 2023) :
 †Eysarcoris humilis Förster, 1891
 †Eysarcoris mammillata  Förster, 1891
 †Eysarcoris nuda Förster, 1891
